--- a/NMRA.xlsx
+++ b/NMRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049295AC-5E7E-4AA8-8CED-7E05E808EBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F932F7F0-75F2-4C75-8F3B-33584891097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24525" yWindow="720" windowWidth="24255" windowHeight="19950" xr2:uid="{6DB802B1-26B2-4BBB-9941-DA4DA2793866}"/>
+    <workbookView xWindow="-31110" yWindow="2025" windowWidth="30855" windowHeight="18675" xr2:uid="{6DB802B1-26B2-4BBB-9941-DA4DA2793866}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -283,7 +282,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -673,7 +673,7 @@
   <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -684,40 +684,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>14.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -729,39 +726,32 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>2321.1664000000001</v>
+        <v>2384.7600000000002</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -774,13 +764,8 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="H6" s="8"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -792,39 +777,29 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="H7" s="8"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>1949.5273999999999</v>
+        <v>2013.1210000000001</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="K9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="K9" s="1">
         <f>+K5/K3</f>
         <v>2.3375874301816535</v>
       </c>

--- a/NMRA.xlsx
+++ b/NMRA.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F932F7F0-75F2-4C75-8F3B-33584891097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7204A3E6-D311-4BE0-9509-E5C7EADF2012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31110" yWindow="2025" windowWidth="30855" windowHeight="18675" xr2:uid="{6DB802B1-26B2-4BBB-9941-DA4DA2793866}"/>
+    <workbookView xWindow="-22830" yWindow="450" windowWidth="23040" windowHeight="19635" xr2:uid="{6DB802B1-26B2-4BBB-9941-DA4DA2793866}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="navacaprant" sheetId="3" r:id="rId3"/>
+    <sheet name="Options" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Price</t>
   </si>
@@ -127,6 +129,48 @@
   </si>
   <si>
     <t>M4 pam</t>
+  </si>
+  <si>
+    <t>ADME</t>
+  </si>
+  <si>
+    <t>LogP ~ 4</t>
+  </si>
+  <si>
+    <t>CCC1=CC2=C(C(=C(N=C2C(=C1)F)N3CCC(CC3)NC4CCOCC4)C5=NC(=NO5)C)C.Cl</t>
+  </si>
+  <si>
+    <t>SMILES</t>
+  </si>
+  <si>
+    <t>1-[6-ethyl-8-fluoro-4-methyl-3-(3-methyl-1,2,4-oxadiazol-5-yl)quinolin-2-yl]-N-(oxan-4-yl)piperidin-4-amine;hydrochloride</t>
+  </si>
+  <si>
+    <t>IUPAC</t>
+  </si>
+  <si>
+    <t>BTRX-335140, NMRA-335140, CYM-53093</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>aticaprant (JNJ)</t>
+  </si>
+  <si>
+    <t>n=100 moderate-to-severe subgroup</t>
+  </si>
+  <si>
+    <t>Phase II n=171 MDD NCT04221230</t>
+  </si>
+  <si>
+    <t>n=171 ITT?</t>
+  </si>
+  <si>
+    <t>HAMD-17 -3.0 vs placebo at week 4, -2.8 at week 8 (LSMD, p=0.015, p=0.037)</t>
+  </si>
+  <si>
+    <t>HAMD-17 2.7 vs. placebo at week 4, 1.7 at week 8 (0.121)</t>
   </si>
 </sst>
 </file>
@@ -263,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -273,7 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -282,8 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -346,6 +388,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300790</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>108284</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4AF9EA-B860-3585-436B-ECA0B969F7E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5078329" y="2045368"/>
+          <a:ext cx="2865521" cy="2831933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -672,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64D99BF-296D-49E7-B37B-5210058D7EE6}">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -684,28 +792,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>15</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -714,7 +822,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -726,7 +834,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
@@ -735,23 +843,23 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>2384.7600000000002</v>
+        <v>1861.7026400000002</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -764,8 +872,8 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="H6" s="7"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -777,28 +885,28 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="H7" s="7"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>2013.1210000000001</v>
+        <v>1490.0636400000003</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
       <c r="K9" s="1">
         <f>+K5/K3</f>
         <v>2.3375874301816535</v>
@@ -810,6 +918,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="navacaprant!A1" display="navacaprant" xr:uid="{A587326C-9FF2-437D-94C9-3E2BA65DF97F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -896,4 +1007,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE3194F-E37B-4783-8F70-7E9E15C25805}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BFC583-ADA9-4DC4-9911-E0DD218B66B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NMRA.xlsx
+++ b/NMRA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7204A3E6-D311-4BE0-9509-E5C7EADF2012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F725A81-F36A-4E47-BB64-05958A64D823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22830" yWindow="450" windowWidth="23040" windowHeight="19635" xr2:uid="{6DB802B1-26B2-4BBB-9941-DA4DA2793866}"/>
+    <workbookView xWindow="4780" yWindow="760" windowWidth="29780" windowHeight="20540" activeTab="1" xr2:uid="{6DB802B1-26B2-4BBB-9941-DA4DA2793866}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="kappa" sheetId="5" r:id="rId2"/>
     <sheet name="navacaprant" sheetId="3" r:id="rId3"/>
     <sheet name="Options" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Price</t>
   </si>
@@ -92,27 +92,12 @@
     <t>MOA</t>
   </si>
   <si>
-    <t>Kappa antagonist</t>
-  </si>
-  <si>
-    <t>Phase III "KOASTAL-1"</t>
-  </si>
-  <si>
     <t>Origin</t>
   </si>
   <si>
-    <t>TSRI</t>
-  </si>
-  <si>
-    <t>NMRA-140, BTRX-335140, CYM-53093</t>
-  </si>
-  <si>
     <t>Competition</t>
   </si>
   <si>
-    <t>aticaprant (LY2456302, CERC-501) - J&amp;J</t>
-  </si>
-  <si>
     <t>NMRA-511</t>
   </si>
   <si>
@@ -149,15 +134,9 @@
     <t>IUPAC</t>
   </si>
   <si>
-    <t>BTRX-335140, NMRA-335140, CYM-53093</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
-    <t>aticaprant (JNJ)</t>
-  </si>
-  <si>
     <t>n=100 moderate-to-severe subgroup</t>
   </si>
   <si>
@@ -170,14 +149,80 @@
     <t>HAMD-17 -3.0 vs placebo at week 4, -2.8 at week 8 (LSMD, p=0.015, p=0.037)</t>
   </si>
   <si>
-    <t>HAMD-17 2.7 vs. placebo at week 4, 1.7 at week 8 (0.121)</t>
+    <t>dynorphin</t>
+  </si>
+  <si>
+    <t>peptide ligand for opioid receptors</t>
+  </si>
+  <si>
+    <t>HAMD-17 2.7 vs. placebo at week 4, 1.7 at week 8 (p=0.121)</t>
+  </si>
+  <si>
+    <t>Week 8 - Cymbalta vs. Paxil</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>80mg C</t>
+  </si>
+  <si>
+    <t>120mg C</t>
+  </si>
+  <si>
+    <t>Paxil</t>
+  </si>
+  <si>
+    <t>HAMD-17</t>
+  </si>
+  <si>
+    <t>Aticaprant</t>
+  </si>
+  <si>
+    <t>MADRS</t>
+  </si>
+  <si>
+    <t>3.1 point separation on MADRS (SE 1.05)</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>BTRX-335140, NMRA-335140, CYM-53093, NMRA-140</t>
+  </si>
+  <si>
+    <t>TSRI, BlackThorn</t>
+  </si>
+  <si>
+    <t>n=332 KOASTAL-1</t>
+  </si>
+  <si>
+    <t>80mg</t>
+  </si>
+  <si>
+    <t>90% power - MADRS PE</t>
+  </si>
+  <si>
+    <t>aticaprant (JNJ, LY2456302, CERC-501)</t>
+  </si>
+  <si>
+    <t>Evaluation of Opioid Modulation in Major Depressive Disorder. Ehrich et al. Neuropsychopharmacology (2015) 40, 1448–1455</t>
+  </si>
+  <si>
+    <t>Samidorphin in opioid-experienced adults</t>
+  </si>
+  <si>
+    <t>buprenorphine is a partial mu agonist</t>
+  </si>
+  <si>
+    <t>samidorphin is a pan-opioid antagonist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -194,6 +239,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -307,14 +359,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -326,6 +377,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -350,65 +406,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>79832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>61508</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142596</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7828A677-AC02-E841-5486-9523B3743061}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3623310" y="571322"/>
-          <a:ext cx="1909358" cy="1209574"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>300790</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>120315</xdr:rowOff>
+      <xdr:colOff>666675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>108284</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>64669</xdr:rowOff>
+      <xdr:colOff>435810</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>84722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -438,8 +445,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5078329" y="2045368"/>
-          <a:ext cx="2865521" cy="2831933"/>
+          <a:off x="6649043" y="1637631"/>
+          <a:ext cx="2469556" cy="2290512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -778,33 +785,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64D99BF-296D-49E7-B37B-5210058D7EE6}">
-  <dimension ref="B2:L11"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -812,17 +819,17 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -833,17 +840,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>24</v>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="H4" s="6"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -852,14 +859,14 @@
         <v>1861.7026400000002</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>28</v>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -871,9 +878,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="H6" s="7"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="7"/>
+      <c r="H6" s="6"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -884,9 +891,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="H7" s="7"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="7"/>
+      <c r="H7" s="6"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -895,26 +902,97 @@
         <v>1490.0636400000003</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
       <c r="K9" s="1">
         <f>+K5/K3</f>
         <v>2.3375874301816535</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D13-K9</f>
+        <v>12.662412569818347</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="G13" s="17">
+        <f>E13/F13-1</f>
+        <v>0.58280157122729337</v>
+      </c>
+      <c r="I13">
+        <v>1.6</v>
+      </c>
+      <c r="J13" s="17">
+        <f>I13/F14</f>
+        <v>0.372093023255814</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14-K9</f>
+        <v>7.662412569818347</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="G14" s="17">
+        <f>E14/F14-1</f>
+        <v>0.78195641158566209</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <v>7.5</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D15-K9</f>
+        <v>5.162412569818347</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="G15" s="17">
+        <f>E15/F15-1</f>
+        <v>0.94808021502579143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <f>D16-K9</f>
+        <v>2.6624125698183465</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G16" s="17">
+        <f>E16/F16-1</f>
+        <v>1.0480096690910359</v>
       </c>
     </row>
   </sheetData>
@@ -926,117 +1004,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B472031-FB95-4E45-BC81-8218684D4224}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF2FAA1-67C8-2D45-8B62-F46C395B7D5C}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="304" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{95083D5C-05D0-4D00-AEB7-ACBE9300F903}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3EBF0FEE-B28E-2547-B11F-1D1967F40B5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE3194F-E37B-4783-8F70-7E9E15C25805}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1044,85 +1092,208 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="C9" s="15">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
+      <c r="G24" t="s">
         <v>43</v>
       </c>
+      <c r="H24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="E25">
+        <v>-11</v>
+      </c>
+      <c r="F25">
+        <v>-12.1</v>
+      </c>
+      <c r="G25">
+        <v>-11.7</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E26" s="16">
+        <f>E25-D25</f>
+        <v>-2.1999999999999993</v>
+      </c>
+      <c r="F26" s="16">
+        <f>F25-D25</f>
+        <v>-3.2999999999999989</v>
+      </c>
+      <c r="G26" s="16">
+        <f>G25-D25</f>
+        <v>-2.8999999999999986</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>-9</v>
+      </c>
+      <c r="E27">
+        <v>-12.1</v>
+      </c>
+      <c r="F27">
+        <v>-14.1</v>
+      </c>
+      <c r="G27">
+        <v>-13.8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E28" s="16">
+        <f>E27-D27</f>
+        <v>-3.0999999999999996</v>
+      </c>
+      <c r="F28" s="16">
+        <f>F27-D27</f>
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G28" s="16">
+        <f>G27-D27</f>
+        <v>-4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C32" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{992DDA5E-7581-BE47-ADD9-7D39944DEA48}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1136,12 +1307,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
